--- a/Listas de precios/mayorista/SOPORTE LUQUE.xlsx
+++ b/Listas de precios/mayorista/SOPORTE LUQUE.xlsx
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="2">
@@ -878,8 +878,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" scale="85" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/SOPORTE LUQUE.xlsx
+++ b/Listas de precios/mayorista/SOPORTE LUQUE.xlsx
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="2">
@@ -878,8 +878,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" scale="85" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/SOPORTE LUQUE.xlsx
+++ b/Listas de precios/mayorista/SOPORTE LUQUE.xlsx
@@ -691,7 +691,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="2">
@@ -878,8 +878,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="A14:D14"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A14:D14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" scale="85" horizontalDpi="0" verticalDpi="0"/>
